--- a/Tickets/Normal Tickets/Ticket 32285/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 32285/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin's Work\Tickets\Normal Tickets\Ticket 32285\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 32285\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108FCAF-616F-4161-BAC3-80FD794786E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18054F0-F2F4-4FB0-A833-A46F1C155EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Test Case #</t>
   </si>
@@ -152,9 +152,6 @@
     <t>On Dev Environment, confirm that SQL Procedure works</t>
   </si>
   <si>
-    <t>Justin Pope - 8/30/2022</t>
-  </si>
-  <si>
     <t>Create Stage records with data that would be invalid to current procedure [ESS].[usp_Stage_Quote_Raw_Put]</t>
   </si>
   <si>
@@ -189,31 +186,15 @@
 Query Ecat.dbo.QuoteMaster and Ecat.dbo.QuoteDetail that the quotes were imported</t>
   </si>
   <si>
-    <t>Staged Records</t>
-  </si>
-  <si>
-    <t>StagedRow</t>
-  </si>
-  <si>
-    <t>RawDocmentText</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>ship_to_company_name is longer than 100 characters and will error out usp_Stage_Quote_Raw_Put</t>
-  </si>
-  <si>
-    <t>{"gwc_split_order":"false","additional_fields":{"promocode":"NONE","promo_code":null,"billto_deliverytype":"White Glove","shippingterms":"Delivery Local","order_origin":"Chestnut Hill Store","shipment_preference":null,"billto_shipmentrequest":"As Available","billto_addresstype":"Residential"},"bill_to_address_changed":false,"ship_to_address_changed":false,"bill_to_line1":"707 Matsonford Road Villanova, PA 19085","bill_to_line2":"","bill_to_city":"","bill_to_company_name":"Claudia Schmidt Interior Designer INC","bill_to_country":"","bill_to_postal_code":"","bill_to_state":"","buyer_first_name":"Claudia Schmidt Interior Designer INC","buyer_last_name":"SCHMIDT","customer_email_address":"claudia@balongue.com","customer_number":"","customer_phone_number":"610-636-0120","customer_po_number":"55063-081122-662","discount_amount_cents":null,"discount_percent":null,"ecat_version":"2021.6.1.1","id":1021350,"is_exported":false,"is_submitted":true,"notes":"Designer trade program 50% of retail.\n\nItem not in stock until September 30/2022","order_items":[{"gwc_stock_code_override":"(none)","discount_notes":["(50% discount, original price $3,956.00)"],"has_discount":true,"option_notes":[],"calculated_price":1978.0,"line_notes":[],"extended_price":1978.0,"extended_product_volume":42.63,"description":"Alexandra Dresser","item_number":"SCH-166295","item_price":3956.0,"matrix_option_item_code":null,"options":[],"quantity":1,"units_per_carton":1,"custom_fields":{"i.qty_available":0,"i.qty_in_transit":0,"i.qty_on_hand":27,"i.qty_in_showroom":0,"StockEta":"Sep 18, 2022","ProductStatus":"Current","AvailableAtlantaStore":"0","AvailableAustinStore":"0","AvailableCharlotteStore":"0","AvailableChestnutHillStore":"1","AvailableJacksonvilleStore":"0","AvailableNashvilleStore":"0","AvailablePelhamOutlet":"1","AvailableRaleighStore":"0","AvailableRichmondStore":"0","AvailableSanAntonioStore":"0","AvailablePelhamShowroom":"0","AvailableStLouisStore":"0","AvailableWinterParkStore":"0","Introduction":"HP Fall 2019","product_dimensions_in":"72 W 19 D 35.75 H","CarrierType":"Furniture","shipping_weight":248.25,"minimum_order":1,"CountryOfOrigin":"Indonesia","EstimatedFreightCost":"0","AvailableAtlantaShowroom":"1","AvailableDallasShowroom":"1","AvailableHighPointShowroom":"1","AvailableLasVegasShowroom":"0","BuildStockCodeType":"Gabby","CreateStockCodeEligible":"false","CreateStockCodeType":"Gabby","Essential":"N","WhiteLabel":"N","AvailableAtlantaOutlet":"0","AvailableWH15":"0","AvailableWH16":"0"},"upc_value":null,"upc_type":null}],"order_number":"55063-081122-662","order_source":"ipad","order_type":"Quote","organization_id":69,"price_level":"rcalc","rep_email":"JulietS@summerclassics.com","rep_first_name":"Juliet","rep_last_name":"Spencer","rep_number":"JSP","rep_phone":"","ship_date":null,"cancel_date":null,"ship_to_line1":"","ship_to_line2":"","ship_to_city":"","ship_to_code":"1","ship_to_company_name":" Viggiano Moving &amp; Strg 1210 Stanbridge St. Suite 400 Norristown, PA 19401 CONTACT: Kate office@viggianodelivery.","ship_to_country":"","ship_to_postal_code":"","ship_to_state":"","submit_date":"2022-08-11T18:00:33Z","surcharges":[{"label":"Delivery Fee","amount":299}],"tag_for":"","total_cents":227700,"total_product_volume":42.63,"uuid":"B18F12BA-64A9-4A91-8268-146FD77CA7FA","local_customer_code":"DF836C52-8F40-49E2-AE45-F25C624F64B8","bill_to_line3":null,"ship_to_line3":null,"ship_to_email_address":null,"ship_to_phone_number":null,"payment_information":{}}</t>
-  </si>
-  <si>
-    <t>Reset Record to be Processed</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
     <t>Deploy program on dev Syspro7</t>
+  </si>
+  <si>
+    <t>1) Running the Test WinForm application within Visual Studios
+2) All updates are validations and will not update data
+3) Testing for the specific error that was being expeirenced in production, truncating of data</t>
+  </si>
+  <si>
+    <t>Justin Pope - 2023/03/22</t>
   </si>
 </sst>
 </file>
@@ -372,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -461,95 +442,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,23 +535,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1887540</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182953</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>134430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7486BD54-28CC-C5D9-B138-30085ACD58B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49576F44-35C5-EF40-33A3-DEBF25913050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,15 +559,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="15068"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="4762499"/>
-          <a:ext cx="11393490" cy="3352801"/>
+          <a:off x="809625" y="4619625"/>
+          <a:ext cx="14175178" cy="7735380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,23 +579,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2830163</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>19655</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593096</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>48038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB988EE-86F9-EA86-6E34-8945F726C5E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9615C2E1-20F8-A324-FF3A-0FD44149EDFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,96 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="16516350"/>
-          <a:ext cx="8869013" cy="4334480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1315876</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FB99BD-239A-4EE6-3374-99AD2FB79EB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628650" y="14563725"/>
-          <a:ext cx="10221751" cy="1752845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>316577</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA702D7-E271-D38C-F433-37B117D18B3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="20993100"/>
-          <a:ext cx="16137602" cy="1781424"/>
+          <a:off x="809625" y="12544425"/>
+          <a:ext cx="18242921" cy="2962688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,21 +630,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1353957</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>143279</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163901</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>58175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BB39F0-D4C5-E8D6-AF09-CE52319212B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134A18F8-51FE-7A6A-D581-AE5FC6ED6F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,8 +660,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="5724525"/>
-          <a:ext cx="10078857" cy="2896004"/>
+          <a:off x="809625" y="5562600"/>
+          <a:ext cx="14156126" cy="7344800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2706695</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F763C399-0275-6DE9-A349-D11F6FD887E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="5400675"/>
+          <a:ext cx="11431595" cy="6373114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,21 +723,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>488306</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>67159</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>135236</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>143980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF089B5-CFE4-AE1F-2F5C-A81DED7DFC16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEB5A0E-31C0-243C-B4CC-3D0CCA54BFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,57 +753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="9124950"/>
-          <a:ext cx="18138131" cy="3467584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88228</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>134427</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBD0156-DE35-F371-51EC-DD6D4375CCA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4781550"/>
-          <a:ext cx="17938078" cy="7716327"/>
+          <a:off x="809625" y="12039600"/>
+          <a:ext cx="13517861" cy="7916380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E2" s="25"/>
     </row>
@@ -1271,137 +1147,146 @@
       <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
@@ -1411,13 +1296,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1431,9 +1309,9 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1448,59 +1326,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="43">
+      <c r="B2" s="48"/>
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="43" t="str">
+      <c r="B3" s="48"/>
+      <c r="C3" s="34" t="str">
         <f>'Test Cases'!B2</f>
         <v>Test Updated Error Handling</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="43" t="str">
+      <c r="B4" s="48"/>
+      <c r="C4" s="34" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) Running the Test WinForm application within Visual Studios
-2) All updates are validations and will not update data</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+2) All updates are validations and will not update data
+3) Testing for the specific error that was being expeirenced in production, truncating of data</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1512,66 +1391,66 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="A7" s="45">
         <v>1</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
-        <v>2</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="A10" s="51">
         <v>1</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="25" t="s">
         <v>27</v>
       </c>
@@ -1580,10 +1459,10 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="51">
         <v>2</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1596,50 +1475,50 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
@@ -1654,62 +1533,43 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="56" t="s">
-        <v>49</v>
-      </c>
-    </row>
+      <c r="C22" s="30"/>
+    </row>
+    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
-        <v>22533</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="57" t="s">
-        <v>53</v>
-      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1717,6 +1577,12 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B15"/>
@@ -1727,7 +1593,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1741,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BD50C6-48DE-4D60-8966-1F9E652A285D}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1757,60 +1622,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="43">
+      <c r="B2" s="48"/>
+      <c r="C2" s="34">
         <v>2</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="43" t="str">
+      <c r="B3" s="48"/>
+      <c r="C3" s="34" t="str">
         <f>'Test Cases'!B3</f>
         <v>Test Updated SQL Procedure</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="43" t="str">
+      <c r="B4" s="48"/>
+      <c r="C4" s="34" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) Running the Test WinForm application within Visual Studios
 2) All updates are validations and will not update data</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -1821,67 +1686,67 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="A7" s="45">
         <v>1</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
-        <v>2</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="A10" s="51">
         <v>1</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="11"/>
@@ -1889,10 +1754,10 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="51">
         <v>2</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -1905,101 +1770,110 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="C23" s="30"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="56" t="s">
-        <v>56</v>
-      </c>
+      <c r="C43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:F20"/>
@@ -2010,19 +1884,6 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2035,7 +1896,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2050,60 +1911,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="43">
+      <c r="B2" s="48"/>
+      <c r="C2" s="34">
         <f>'Test Cases'!A4</f>
         <v>3</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="43" t="str">
+      <c r="B3" s="48"/>
+      <c r="C3" s="34" t="str">
         <f>'Test Cases'!B4</f>
         <v>Deploy program to dev 7syspro and watch it run as normal</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="43" t="str">
+      <c r="B4" s="48"/>
+      <c r="C4" s="34" t="str">
         <f>'Test Cases'!D4</f>
         <v>1) Let the service run on dev 7Syspro</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2114,82 +1975,82 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="A7" s="45">
         <v>1</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+      <c r="A8" s="45">
         <v>2</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
+        <v>3</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
-        <v>3</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="51">
         <v>1</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="11"/>
@@ -2197,10 +2058,10 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="A12" s="51">
         <v>2</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24" t="s">
         <v>28</v>
       </c>
@@ -2213,51 +2074,63 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="23"/>
       <c r="E14" s="16"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A8:B8"/>
@@ -2265,19 +2138,7 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2285,12 +2146,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2525,14 +2388,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2540,9 +2401,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2567,12 +2431,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tickets/Normal Tickets/Ticket 32285/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 32285/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 32285\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18054F0-F2F4-4FB0-A833-A46F1C155EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143636C3-5E8D-4DB2-A427-26EDBD1AAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Test Case #</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Justin Pope - 2023/03/22</t>
+  </si>
+  <si>
+    <t>Cather Cheese - 2023/03/28</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -448,31 +454,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,12 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1089,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1138,9 @@
       <c r="D2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1147,7 +1155,9 @@
       <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1162,131 +1172,130 @@
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
@@ -1296,6 +1305,13 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1326,60 +1342,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="34">
+      <c r="B2" s="42"/>
+      <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="34" t="str">
+      <c r="B3" s="42"/>
+      <c r="C3" s="39" t="str">
         <f>'Test Cases'!B2</f>
         <v>Test Updated Error Handling</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="34" t="str">
+      <c r="B4" s="42"/>
+      <c r="C4" s="39" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) Running the Test WinForm application within Visual Studios
 2) All updates are validations and will not update data
 3) Testing for the specific error that was being expeirenced in production, truncating of data</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1391,20 +1407,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +1435,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
@@ -1437,14 +1453,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
@@ -1491,18 +1507,18 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
@@ -1517,8 +1533,8 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
@@ -1541,14 +1557,14 @@
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="30"/>
@@ -1556,27 +1572,19 @@
     <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="31"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="31"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="A5:C5"/>
@@ -1593,6 +1601,14 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1622,59 +1638,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="34">
+      <c r="B2" s="42"/>
+      <c r="C2" s="39">
         <v>2</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="34" t="str">
+      <c r="B3" s="42"/>
+      <c r="C3" s="39" t="str">
         <f>'Test Cases'!B3</f>
         <v>Test Updated SQL Procedure</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="34" t="str">
+      <c r="B4" s="42"/>
+      <c r="C4" s="39" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) Running the Test WinForm application within Visual Studios
 2) All updates are validations and will not update data</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1686,20 +1702,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
@@ -1714,10 +1730,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
@@ -1732,14 +1748,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
@@ -1786,18 +1802,18 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
@@ -1812,8 +1828,8 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
@@ -1836,14 +1852,14 @@
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
@@ -1861,6 +1877,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -1874,16 +1900,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1895,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D692C38E-1434-4BF8-9A18-44FBDABD43E3}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1911,59 +1927,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="34">
+      <c r="B2" s="42"/>
+      <c r="C2" s="39">
         <f>'Test Cases'!A4</f>
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="34" t="str">
+      <c r="B3" s="42"/>
+      <c r="C3" s="39" t="str">
         <f>'Test Cases'!B4</f>
         <v>Deploy program to dev 7syspro and watch it run as normal</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="34" t="str">
+      <c r="B4" s="42"/>
+      <c r="C4" s="39" t="str">
         <f>'Test Cases'!D4</f>
         <v>1) Let the service run on dev 7Syspro</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1975,20 +1991,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2000,10 +2016,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
@@ -2018,10 +2034,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
@@ -2036,14 +2052,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
@@ -2090,24 +2106,24 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
@@ -2119,18 +2135,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A8:B8"/>
@@ -2139,6 +2143,18 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2146,14 +2162,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2388,12 +2402,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2401,12 +2417,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2431,9 +2444,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
